--- a/data/Putre.xlsx
+++ b/data/Putre.xlsx
@@ -3824,7 +3824,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3839,11 +3839,11 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3852,12 +3852,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3872,7 +3872,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3887,11 +3887,11 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3900,12 +3900,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">

--- a/data/Putre.xlsx
+++ b/data/Putre.xlsx
@@ -6008,7 +6008,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">

--- a/data/Putre.xlsx
+++ b/data/Putre.xlsx
@@ -3824,7 +3824,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3839,11 +3839,11 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3852,12 +3852,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3872,7 +3872,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3887,11 +3887,11 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3900,12 +3900,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">

--- a/data/Putre.xlsx
+++ b/data/Putre.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J126"/>
+  <dimension ref="A1:J127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,12 +424,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Proyecto Cerro Marquez</t>
+          <t>Reposición Ruta 11-CH, Sector: Km. 147 Km. - 170, Comuna de Putre, Provincia de Parinacota, Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINERA PLATA CARINA SpA</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5000</v>
+        <v>39775</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>08/04/2021</t>
+          <t>04/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151344334&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155179204&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>Proyecto Cerro Marquez</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -482,20 +482,20 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>MINERA PLATA CARINA SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>23/12/2019</t>
+          <t>08/04/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151344334&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,40 +520,40 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mejoramiento Ruta Andina, Sector Límite Regional - Ruta 11 CH. Región de Arica y Parinacota</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>70695</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>29/10/2018</t>
+          <t>23/12/2019</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141432509&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,12 +568,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Proyecto Instalación Torre de Telecomunicaciones Sitio NEWPOLI341F1 - Ancuta</t>
+          <t>Mejoramiento Ruta Andina, Sector Límite Regional - Ruta 11 CH. Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Telefónica Móviles Chile S.A</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>150</v>
+        <v>70695</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>23/04/2018</t>
+          <t>29/10/2018</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138933410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141432509&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,12 +616,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mejoramiento Ruta Andina, Sector Límite Regional - Ruta 11-CH, Región de Arica y Parinacota</t>
+          <t>Proyecto Instalación Torre de Telecomunicaciones Sitio NEWPOLI341F1 - Ancuta</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Telefónica Móviles Chile S.A</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>62890</v>
+        <v>150</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>26/01/2017</t>
+          <t>23/04/2018</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132091895&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138933410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,12 +664,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Instalación Torre de Telecomunicaciones Sitio NEWPOLI272F1 Putre - Guallatire</t>
+          <t>Mejoramiento Ruta Andina, Sector Límite Regional - Ruta 11-CH, Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Telefónica Móviles Chile S.A</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>245</v>
+        <v>62890</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>09/11/2016</t>
+          <t>26/01/2017</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131910242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132091895&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Instalación Torre de Telecomunicaciones Sitio NEWPOLI282F1 - Av. Simón Bolívar R11 Putre 6</t>
+          <t>Instalación Torre de Telecomunicaciones Sitio NEWPOLI272F1 Putre - Guallatire</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,21 +731,21 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>303</v>
+        <v>245</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>14/09/2016</t>
+          <t>09/11/2016</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131771136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131910242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Instalación Torre de Telecomunicaciones Sitio NEWPOLI273F1 - Putre - Murmuntani</t>
+          <t>Instalación Torre de Telecomunicaciones Sitio NEWPOLI282F1 - Av. Simón Bolívar R11 Putre 6</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -779,21 +779,21 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>01/08/2016</t>
+          <t>14/09/2016</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131646554&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131771136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Instalación Torre de Telecomunicaciones Sitio NEWPOLI274F1 - Putre Paquisa</t>
+          <t>Instalación Torre de Telecomunicaciones Sitio NEWPOLI273F1 - Putre - Murmuntani</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -827,7 +827,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131641673&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131646554&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Instalación Torre de Telecomunicaciones Sitio NEWPOLI280F1 - Av. Simón Bolívar R11 - Putre 4</t>
+          <t>Instalación Torre de Telecomunicaciones Sitio NEWPOLI274F1 - Putre Paquisa</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -875,11 +875,11 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>27/07/2016</t>
+          <t>01/08/2016</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131627463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131641673&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Instalación Torre de Telecomunicaciones Sitio NEWPOLI281F1 - Av. Simón Bolívar R11 - Putre 5</t>
+          <t>Instalación Torre de Telecomunicaciones Sitio NEWPOLI280F1 - Av. Simón Bolívar R11 - Putre 4</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>208</v>
+        <v>268</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131627971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131627463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Instalación Torre de Telecomunicaciones Sitio NEWPOLI283F1 - Av. Simón Bolívar R11 - Putre 7</t>
+          <t>Instalación Torre de Telecomunicaciones Sitio NEWPOLI281F1 - Av. Simón Bolívar R11 - Putre 5</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131628307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131627971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Instalación Torre de Telecomunicaciones Sitio NEWPOLI280F1 Av. Simón Bolívar R11 Putre 4</t>
+          <t>Instalación Torre de Telecomunicaciones Sitio NEWPOLI283F1 - Av. Simón Bolívar R11 - Putre 7</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Maria Olga Contreras Cifras</t>
+          <t>Telefónica Móviles Chile S.A</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>269</v>
+        <v>194</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>25/07/2016</t>
+          <t>27/07/2016</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131613876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131628307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>"Instalación Torre de Telecomunicaciones Sitio NEWPOLI281F1 - Av. Simón Bolívar R11 - Putre 5"</t>
+          <t>Instalación Torre de Telecomunicaciones Sitio NEWPOLI280F1 Av. Simón Bolívar R11 Putre 4</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131616275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131613876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Instalación Torre de Telecomunicaciones Sitio NEWPOLI283F1 - Av. Simón Bolívar R11 - Putre 7</t>
+          <t>"Instalación Torre de Telecomunicaciones Sitio NEWPOLI281F1 - Av. Simón Bolívar R11 - Putre 5"</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1115,7 +1115,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>194</v>
+        <v>269</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131617666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131616275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Instalación de Torre para Telecomunicaciones Sitio ZT072 - Chapiquiña</t>
+          <t>Instalación Torre de Telecomunicaciones Sitio NEWPOLI283F1 - Av. Simón Bolívar R11 - Putre 7</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>WILL S.A</t>
+          <t>Maria Olga Contreras Cifras</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>45</v>
+        <v>194</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>22/07/2015</t>
+          <t>25/07/2016</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130634576&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131617666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Instalación de Torre para Telecomunicaciones Sitio ZT072 - Chapiquiña</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,30 +1202,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>WILL S.A</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>5000</v>
+        <v>45</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>22/07/2015</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130634576&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico entre la XV, I, II y III Regiones de Chile</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Transportes DE&amp;FE SpA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>13/01/2015</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130119810&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ampliación de Rutas de Transporte de Ácido Sulfúrico entre la I, II y III Regiones</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico entre la XV, I, II y III Regiones de Chile</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Lincoyán Gregorio Bautista Cárdenas</t>
+          <t>Transportes DE&amp;FE SpA</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>09/01/2015</t>
+          <t>13/01/2015</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130119630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130119810&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico entre la XV, I, II y III Regiones de Chile</t>
+          <t>Ampliación de Rutas de Transporte de Ácido Sulfúrico entre la I, II y III Regiones</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Transportes DE&amp;FE SpA</t>
+          <t>Lincoyán Gregorio Bautista Cárdenas</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1359,17 +1359,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>30/12/2014</t>
+          <t>09/01/2015</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130090735&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130119630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Ampliación de Rutas de Transporte de Ácido Sulfúrico entre la I, II y III Regiones</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico entre la XV, I, II y III Regiones de Chile</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Lincoyán Gregorio Bautista Cárdenas</t>
+          <t>Transportes DE&amp;FE SpA</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>29/12/2014</t>
+          <t>30/12/2014</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130090791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130090735&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación de Rutas de Transporte de Ácido Sulfúrico entre la I, II y III Regiones</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Lincoyán Gregorio Bautista Cárdenas</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>29/12/2014</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130090791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>20/11/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128831391&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,15 +1735,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>20/11/2013</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128831391&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Construcción de Alcantarillado, Casetas Sanitarias y Disposición de Aguas Servidas en Chucuyo, Parque Nacional Lauca, Comuna de Putre</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,30 +1826,30 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Municipalidad de Putre</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>385</v>
+        <v>5000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>03/05/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6868604&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Construcción de Casetas Sanitarias y Disposición de Aguas Servidas en Estancias de Guallatire, Reserva Nacional Las Vicuñas, Comuna de Putre</t>
+          <t>Construcción de Alcantarillado, Casetas Sanitarias y Disposición de Aguas Servidas en Chucuyo, Parque Nacional Lauca, Comuna de Putre</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6869361&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6868604&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Construcción de Alcantarillado, Casetas Sanitarias y disposición de Aguas Servidas en Chucuyo, Parque Nacional Lauca, Comuna de Putre</t>
+          <t>Construcción de Casetas Sanitarias y Disposición de Aguas Servidas en Estancias de Guallatire, Reserva Nacional Las Vicuñas, Comuna de Putre</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1931,21 +1931,21 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>28/03/2012</t>
+          <t>03/05/2012</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6741066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6869361&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Construcción de Casetas Sanitarias y Disposición de Aguas Servidas en Estancias de Guallatire, Reserva Nacional Las Vicuñas, Comuna de Putre</t>
+          <t>Construcción de Alcantarillado, Casetas Sanitarias y disposición de Aguas Servidas en Chucuyo, Parque Nacional Lauca, Comuna de Putre</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1979,7 +1979,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6742841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6741066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Construcción de Casetas Sanitarias y Disposición de Aguas Servidas en Estancias de Guallatire, Reserva Nacional Las Vicuñas, Comuna de Putre</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,20 +2018,20 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Municipalidad de Putre</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>100</v>
+        <v>370</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>28/03/2012</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6742841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,40 +2104,40 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Reposición Ruta Andina A -93, Parinacota - Visviri, Tramo al interior del Parque Nacional Lauca" Comuna de Putre, Provincia de Parinacota, Región de Arica y Parinacota</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>6424</v>
+        <v>100</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>24/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6271788&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>PROYECTO "MANGANESO LOS PUMAS"</t>
+          <t>Reposición Ruta Andina A -93, Parinacota - Visviri, Tramo al interior del Parque Nacional Lauca" Comuna de Putre, Provincia de Parinacota, Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>MINERA HEMISFERIO SUR S.C.M.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>100000</v>
+        <v>6424</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>26/08/2011</t>
+          <t>24/11/2011</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5964455&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6271788&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Proyecto Manganeso Los Pumas</t>
+          <t>PROYECTO "MANGANESO LOS PUMAS"</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2223,17 +2223,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>08/06/2011</t>
+          <t>26/08/2011</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5685773&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5964455&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Manganeso Los Pumas Manganeso Los Pumas</t>
+          <t>Proyecto Manganeso Los Pumas</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>27/05/2011</t>
+          <t>08/06/2011</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5661945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5685773&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Reposición Ruta 11-CH, Sector Arica - Tambo Quemado, Tramo km. 170,0 al km. 192,0 , Región de Arica Parinacota</t>
+          <t>Manganeso Los Pumas Manganeso Los Pumas</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>MINERA HEMISFERIO SUR S.C.M.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>44992</v>
+        <v>100000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>14/04/2011</t>
+          <t>27/05/2011</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5507585&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5661945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,12 +2344,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Instalación de Infraestructura Digital para la Conectividad en Parinacota</t>
+          <t>Reposición Ruta 11-CH, Sector Arica - Tambo Quemado, Tramo km. 170,0 al km. 192,0 , Región de Arica Parinacota</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ENTEL PCS Telecomunicaciones S.A.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>45</v>
+        <v>44992</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>06/04/2011</t>
+          <t>14/04/2011</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5497384&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5507585&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Instalación de Infraestructura Digital para la Conectividad en Parinacota</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,20 +2402,20 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>ENTEL PCS Telecomunicaciones S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>250</v>
+        <v>45</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>16/02/2011</t>
+          <t>06/04/2011</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5497384&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2463,17 +2463,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>31/01/2011</t>
+          <t>16/02/2011</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Región de Arica y Parinacota</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,30 +2498,30 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo SEREMI de Vivienda y Urbanismo, Región XV</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>23/11/2010</t>
+          <t>31/01/2011</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5084670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Plan Regional de Desarrollo Urbano Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,30 +2546,30 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>SEREMI de Vivienda y Urbanismo SEREMI de Vivienda y Urbanismo, Región XV</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>23/11/2010</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5084670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Los Pumas Los Pumas</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,30 +2594,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>MINERA HEMISFERIO SUR S.C.M.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>50000</v>
+        <v>1750</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>03/08/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4794566&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos M&amp;M Ltda</t>
+          <t>Los Pumas Los Pumas</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,30 +2642,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>MINERA HEMISFERIO SUR S.C.M.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>78</v>
+        <v>50000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>28/07/2010</t>
+          <t>03/08/2010</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4790984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4794566&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Construcción y Operación de un Observatorio Astronómico para Fines Educativos y Turísticos de la Universidad de Tarapacá, en Copaquilla, Provincia de Parinacota UTA</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos M&amp;M Ltda</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,20 +2690,20 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>UNIVERSIDAD DE TARAPACÁ</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1100</v>
+        <v>78</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>14/07/2010</t>
+          <t>28/07/2010</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4755353&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4790984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
+          <t>Construcción y Operación de un Observatorio Astronómico para Fines Educativos y Turísticos de la Universidad de Tarapacá, en Copaquilla, Provincia de Parinacota UTA</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,20 +2738,20 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
+          <t>UNIVERSIDAD DE TARAPACÁ</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>06/07/2010</t>
+          <t>14/07/2010</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4755353&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1750</v>
+        <v>900</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>06/07/2010</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>41075</v>
+        <v>250</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>15/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>250</v>
+        <v>41075</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>15/03/2010</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MANTENCION DE RUTA 11 CH. ARICA TAMBO QUEMADO (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,30 +2978,30 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ricardo zarate jaime</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>21/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4360320&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>MANTENCION DE RUTA 11 CH. ARICA TAMBO QUEMADO (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,30 +3026,30 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>ricardo zarate jaime</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>350</v>
+        <v>20</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>21/01/2010</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4360320&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,36 +3112,40 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Exploración Minera Proyecto Catanave Exploración Minera Proyecto Catanave</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Southern Copper Corporation ¿ Agencia en Chile</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>950</v>
+        <v>0</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>12/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4180147&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3156,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Exploración Minera Proyecto Catanave</t>
+          <t>Exploración Minera Proyecto Catanave Exploración Minera Proyecto Catanave</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -3175,17 +3179,17 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>02/11/2009</t>
+          <t>12/11/2009</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4180147&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3200,40 +3204,36 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Exploración Minera Proyecto Catanave</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Southern Copper Corporation ¿ Agencia en Chile</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>250</v>
+        <v>950</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>02/11/2009</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>23/09/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3296,7 +3296,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Fibra óptica Arica - Tambo Quemado (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3306,30 +3306,30 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Telefónica International Wholesale Services Chile S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1681</v>
+        <v>250</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>24/08/2009</t>
+          <t>23/09/2009</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3950834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3344,7 +3344,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Mantención de Ruta 11 Ch. Arica - Tambo Quemado. (e-seia)</t>
+          <t>Fibra óptica Arica - Tambo Quemado (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3359,25 +3359,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>ricardo zarate jaime</t>
+          <t>Telefónica International Wholesale Services Chile S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>20</v>
+        <v>1681</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>31/07/2009</t>
+          <t>24/08/2009</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3949320&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3950834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3392,7 +3392,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Fibra Óptica Arica - Tambo Quemado (e-seia)</t>
+          <t>Mantención de Ruta 11 Ch. Arica - Tambo Quemado. (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3407,15 +3407,15 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Telefónica International Wholesale Services Chile S.A.</t>
+          <t>ricardo zarate jaime</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1681</v>
+        <v>20</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>14/07/2009</t>
+          <t>31/07/2009</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3425,7 +3425,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3823569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3949320&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3440,7 +3440,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
+          <t>Fibra Óptica Arica - Tambo Quemado (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3450,30 +3450,30 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Telefónica International Wholesale Services Chile S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>800</v>
+        <v>1681</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>10/07/2009</t>
+          <t>14/07/2009</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3823569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3488,7 +3488,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Mantancion de Ruta 11 CH. Arica-Tambo Quemado (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3498,30 +3498,30 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>ricardo zarate jaime</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>30/06/2009</t>
+          <t>10/07/2009</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3888754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3536,7 +3536,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
+          <t>Mantancion de Ruta 11 CH. Arica-Tambo Quemado (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3546,20 +3546,20 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>ricardo zarate jaime</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>16/06/2009</t>
+          <t>30/06/2009</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3569,7 +3569,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3888754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3584,7 +3584,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>CONSTRUCCION ELECTRIFICACION SING COMUNA DE GENERAL LAGOS (e-seia)</t>
+          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3594,30 +3594,30 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>13/02/2009</t>
+          <t>16/06/2009</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3557500&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3632,7 +3632,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Mantencion y Limpieza Ruta 11-Ch (e-seia)</t>
+          <t>CONSTRUCCION ELECTRIFICACION SING COMUNA DE GENERAL LAGOS (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3647,25 +3647,25 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>ricardo zarate jaime</t>
+          <t>Compañía General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>20</v>
+        <v>1500</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>16/12/2008</t>
+          <t>13/02/2009</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3449356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3557500&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3680,7 +3680,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Mantencion y Limpieza Ruta 11-Ch (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3690,30 +3690,30 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>ricardo zarate jaime</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>16/12/2008</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3449356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3728,7 +3728,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>REPOSICIÓN RUTA 11 -CH, SECTOR CHUCUYO, (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3738,20 +3738,20 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>17111</v>
+        <v>300</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>23/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3761,7 +3761,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3776,7 +3776,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>REPOSICIÓN RUTA A-235, SECTOR: PUENTE LAUCA-GUALLATIRE-CHILCAYA REPOSICIÓN RUTA A-235 (e-seia)</t>
+          <t>REPOSICIÓN RUTA 11 -CH, SECTOR CHUCUYO, (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3795,11 +3795,11 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1934</v>
+        <v>17111</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>22/10/2008</t>
+          <t>23/10/2008</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266716&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3824,7 +3824,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>REPOSICIÓN RUTA A-235, SECTOR: PUENTE LAUCA-GUALLATIRE-CHILCAYA REPOSICIÓN RUTA A-235 (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3834,30 +3834,30 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>250</v>
+        <v>1934</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>22/10/2008</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266716&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3872,7 +3872,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3887,11 +3887,11 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3900,12 +3900,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3920,7 +3920,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3935,25 +3935,25 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3968,7 +3968,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3983,15 +3983,15 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4001,7 +4001,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4016,7 +4016,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>REPOSICIÓN RUTA 11 - CH, SECTOR CHUCUYO (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4026,30 +4026,30 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>17111</v>
+        <v>20</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>10/09/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3153000&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4064,7 +4064,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>REPOSICIÓN RUTA 11 - CH, SECTOR CHUCUYO (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4074,20 +4074,20 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>250</v>
+        <v>17111</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>10/09/2008</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4097,7 +4097,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3153000&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4112,7 +4112,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4127,25 +4127,25 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4160,7 +4160,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Reposición Ruta A-235, Sector Puente Lauca - Guallatire - Chilcaya, Prov. de Parinacota, Región de Arica y Parinacota (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4170,30 +4170,30 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3037648&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4208,7 +4208,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>LEVANTAMIENTO PLAN SECCIONAL DE PUTRE Y OTRAS LOCALIDADES, PUTRE (e-seia)</t>
+          <t>Reposición Ruta A-235, Sector Puente Lauca - Guallatire - Chilcaya, Prov. de Parinacota, Región de Arica y Parinacota (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4223,15 +4223,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Francisco Humire Alejandro</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>10/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4241,7 +4241,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3009489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3037648&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4256,7 +4256,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>LEVANTAMIENTO PLAN SECCIONAL DE PUTRE Y OTRAS LOCALIDADES, PUTRE (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4266,20 +4266,20 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Francisco Humire Alejandro</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>10/07/2008</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4289,7 +4289,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3009489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4319,25 +4319,25 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4352,7 +4352,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Planta Tratamiento Aguas Servidas Complejo Fronterizo Chungará (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4362,20 +4362,20 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Gobernación Provincial de Parinacota</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>128</v>
+        <v>500</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>05/06/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4385,7 +4385,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2961225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4400,7 +4400,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Planta Tratamiento Aguas Servidas Complejo Fronterizo Chungará (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4410,30 +4410,30 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Gobernación Provincial de Parinacota</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>05/06/2008</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2961225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4448,7 +4448,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Plan Regulador de la Comuna de Putre y otras Localidades (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4458,20 +4458,20 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Francisco Humire Alejandro</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>20/05/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4481,7 +4481,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910616&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4496,7 +4496,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Planta Tratamiento Aguas Servidas planta trat ag serv chungara (e-seia)</t>
+          <t>Plan Regulador de la Comuna de Putre y otras Localidades (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4511,15 +4511,15 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Gobernación Provincial de Parinacota</t>
+          <t>Francisco Humire Alejandro</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>18/04/2008</t>
+          <t>20/05/2008</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4529,7 +4529,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2822466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910616&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4544,7 +4544,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Planta Tratamiento Aguas Servidas planta trat ag serv chungara (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4554,30 +4554,30 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Gobernación Provincial de Parinacota</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>18/04/2008</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2822466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4592,7 +4592,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4607,15 +4607,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>429</v>
+        <v>0</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4625,7 +4625,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4640,7 +4640,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Remediación de Suelos para la Reparación y Rehabilitación de la Vía Férrea Arica Visviri (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4650,20 +4650,20 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Empresa De Los Ferrocarriles del Estado</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>4800</v>
+        <v>429</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>24/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4673,7 +4673,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2457856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4711,17 +4711,17 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>17/10/2007</t>
+          <t>24/10/2007</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2433171&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2457856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4736,7 +4736,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Remediación de Suelos para la Reparación y Rehabilitación de la Vía Férrea Arica Visviri (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4746,30 +4746,30 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Empresa De Los Ferrocarriles del Estado</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>234</v>
+        <v>4800</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>17/10/2007</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2433171&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4784,7 +4784,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4799,15 +4799,15 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4817,7 +4817,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4832,36 +4832,40 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Construcción Complejo fronterizo Chungará</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr"/>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Gobernación Provincial de Parinacota</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>11655</v>
+        <v>10</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>18/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2308737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4876,40 +4880,36 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Construcción Complejo fronterizo Chungará</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Gobernación Provincial de Parinacota</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>300</v>
+        <v>11655</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>18/07/2007</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2308737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4924,7 +4924,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Exploracion Minera Choquelimpie (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4934,30 +4934,30 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Vilacollo SA</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>27/04/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4972,7 +4972,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Proyecto de Exploración Minera Catanave (e-seia)</t>
+          <t>Exploracion Minera Choquelimpie (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4987,25 +4987,25 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Southern Copper Corporation ¿ Agencia en Chile</t>
+          <t>Sociedad Contractual Minera Vilacollo SA</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>305</v>
+        <v>500</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>18/04/2007</t>
+          <t>27/04/2007</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2105464&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5020,7 +5020,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Actualización Gestión de Ácido Sulfúrico, Codelco Norte (e-seia)</t>
+          <t>Proyecto de Exploración Minera Catanave (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5030,30 +5030,30 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Southern Copper Corporation ¿ Agencia en Chile</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>305</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>15/01/2007</t>
+          <t>18/04/2007</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922065&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2105464&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5068,7 +5068,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Actualización Gestión de Ácido Sulfúrico, Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5083,25 +5083,25 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>15/01/2007</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922065&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5116,7 +5116,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5139,17 +5139,17 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>REPOSICION RUTA 11-CH, ARICA - TAMBO QUEMADO SECTORES: ACCESO CHOQUELIMPIE - CHUCUYO Arica - Tambo Quemado (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5174,30 +5174,30 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1233</v>
+        <v>200</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>10/02/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1273425&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5212,7 +5212,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>REPOSICION RUTA 11-CH, ARICA - TAMBO QUEMADO SECTORES: ACCESO CHOQUELIMPIE - CHUCUYO Arica - Tambo Quemado (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5222,30 +5222,30 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>160</v>
+        <v>1233</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>10/02/2006</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1273425&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5260,40 +5260,40 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Exploraciones Chantacollo</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Maria Eugenia Velasquez .</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>13/09/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1039024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5308,12 +5308,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Reposición Servicios Higienicos Control Fronterizo Chungara (e-seia)</t>
+          <t>Exploraciones Chantacollo</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -5323,25 +5323,25 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Gobernación Provincial de Parinacota</t>
+          <t>Maria Eugenia Velasquez .</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>82</v>
+        <v>200</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>09/08/2005</t>
+          <t>13/09/2005</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=964173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1039024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN AGUA POTABLE RURAL (APR) LOCALIDAD DE GUALLATIRE (e-seia)</t>
+          <t>Reposición Servicios Higienicos Control Fronterizo Chungara (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5371,25 +5371,25 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Gobernación Provincial de Parinacota</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>04/11/2004</t>
+          <t>09/08/2005</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=481507&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=964173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5404,7 +5404,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN SISTEMA DE AGUA POTABLE RURAL (APR) LOCALIDAD DE PARINACOTA (e-seia)</t>
+          <t>CONSTRUCCIÓN AGUA POTABLE RURAL (APR) LOCALIDAD DE GUALLATIRE (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5423,7 +5423,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=481628&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=481507&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5452,7 +5452,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Actualizacion Plan Regional de Desarrollo Urbano (e-seia)</t>
+          <t>CONSTRUCCIÓN SISTEMA DE AGUA POTABLE RURAL (APR) LOCALIDAD DE PARINACOTA (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5462,20 +5462,20 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Secretaria Regional Ministerial de Vivienda y Urbanismo</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>223</v>
+        <v>74</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>01/09/2004</t>
+          <t>04/11/2004</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5485,7 +5485,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=438513&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=481628&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5500,7 +5500,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>REPOSICIÓN RUTA 11-CH, ARICA TAMBO QUEMADO, SECTOR BIF. PUTRE BIF. CHOQUELIMPIE, I REGIÓN (e-seia)</t>
+          <t>Actualizacion Plan Regional de Desarrollo Urbano (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5510,30 +5510,30 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Secretaria Regional Ministerial de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>4240</v>
+        <v>223</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>28/07/2004</t>
+          <t>01/09/2004</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=390262&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=438513&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5548,7 +5548,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Domésticas Poblado de Parinacota</t>
+          <t>REPOSICIÓN RUTA 11-CH, ARICA TAMBO QUEMADO, SECTOR BIF. PUTRE BIF. CHOQUELIMPIE, I REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5563,25 +5563,25 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Putre</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>16</v>
+        <v>4240</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>28/11/2002</t>
+          <t>28/07/2004</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6070&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=390262&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5596,7 +5596,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>V Festival de la Voz Andina de la Comuna de Putre</t>
+          <t>Planta de Tratamiento de Aguas Servidas Domésticas Poblado de Parinacota</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5615,11 +5615,11 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>07/11/2002</t>
+          <t>28/11/2002</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5629,7 +5629,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6000&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6070&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5644,7 +5644,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Proyecto de Pavimentación Participativa Localidad de Parinacota</t>
+          <t>V Festival de la Voz Andina de la Comuna de Putre</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5667,7 +5667,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>11/10/2002</t>
+          <t>07/11/2002</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5677,7 +5677,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6000&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5692,7 +5692,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Optimización del Proyecto Minero Choquelimpie</t>
+          <t>Proyecto de Pavimentación Participativa Localidad de Parinacota</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5707,7 +5707,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Vilacollo</t>
+          <t>Ilustre Municipalidad de Putre</t>
         </is>
       </c>
       <c r="F112" t="n">
@@ -5715,17 +5715,17 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>07/02/2002</t>
+          <t>11/10/2002</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5740,7 +5740,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Optimización del Proyecto Minero Choquelimpie</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5750,30 +5750,30 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Sociedad Contractual Minera Vilacollo</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>07/02/2002</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5788,7 +5788,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y II</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5803,25 +5803,25 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Transportes Molina Limitada</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>06/08/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4265&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5836,7 +5836,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Instalación del Sistema de Agua Potable Rural de Chapiquiña</t>
+          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y II</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5846,20 +5846,20 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Transportes Molina Limitada</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>23/03/2000</t>
+          <t>06/08/2001</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5869,7 +5869,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4265&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5884,7 +5884,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Instalación del Sistema de Agua Potable Rural de Chapiquiña</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5894,12 +5894,12 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F116" t="n">
@@ -5907,7 +5907,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>23/03/2000</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5917,7 +5917,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5932,30 +5932,30 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Electrificación Poblado de Parinacota</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Putre</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>03/12/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5965,7 +5965,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5980,7 +5980,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Planta de Lavado de Ulexita en el Salar de Surire I Región</t>
+          <t>Electrificación Poblado de Parinacota</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5995,25 +5995,25 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>QUIBORAX S.A.</t>
+          <t>I. Municipalidad de Putre</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>3400</v>
+        <v>80</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>24/09/1999</t>
+          <t>03/12/1999</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6028,12 +6028,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Límite Urbano Ciudad de Servicios Posadas de Zapahuira</t>
+          <t>Planta de Lavado de Ulexita en el Salar de Surire I Región</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -6043,25 +6043,25 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Putre</t>
+          <t>QUIBORAX S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>600</v>
+        <v>3400</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>05/07/1999</t>
+          <t>24/09/1999</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2112&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6076,7 +6076,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Habilitación Albergue Turístico Localidad de Guallatire</t>
+          <t>Límite Urbano Ciudad de Servicios Posadas de Zapahuira</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6095,21 +6095,21 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>50</v>
+        <v>600</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>22/01/1999</t>
+          <t>05/07/1999</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1772&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2112&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6124,7 +6124,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Primer Raid Altiplánico 1998</t>
+          <t>Habilitación Albergue Turístico Localidad de Guallatire</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6139,15 +6139,15 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Ejército de Chile R.C. BL. Nº1</t>
+          <t>I. Municipalidad de Putre</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>14/08/1998</t>
+          <t>22/01/1999</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6157,7 +6157,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1278&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1772&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6172,12 +6172,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Consultoría Análisis Ambiental del Proyecto de Explotación de Pozos en Parque Nacional Lauca</t>
+          <t>Primer Raid Altiplánico 1998</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -6187,25 +6187,25 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Ejército de Chile R.C. BL. Nº1</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>4280</v>
+        <v>0</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>21/07/1998</t>
+          <t>14/08/1998</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=940285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1278&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6220,12 +6220,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Exploraciones Anocarire</t>
+          <t>Consultoría Análisis Ambiental del Proyecto de Explotación de Pozos en Parque Nacional Lauca</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -6235,25 +6235,25 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Minera Homestake Chile S.A.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>100</v>
+        <v>4280</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>13/12/1997</t>
+          <t>21/07/1998</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=171&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=940285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6268,7 +6268,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Instalación Fibra Optica (desde Cerro Chapiquiña a Bolivia)</t>
+          <t>Exploraciones Anocarire</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6283,15 +6283,15 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Entel Chile S.A.</t>
+          <t>Minera Homestake Chile S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>3000</v>
+        <v>100</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>31/07/1997</t>
+          <t>13/12/1997</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6301,7 +6301,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=10&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=171&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6316,7 +6316,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Proyecto Aroma Prospección Minera</t>
+          <t>Instalación Fibra Optica (desde Cerro Chapiquiña a Bolivia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6331,15 +6331,15 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Inversiones North (Chile) Ltda.</t>
+          <t>Entel Chile S.A.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>700</v>
+        <v>3000</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>23/07/1997</t>
+          <t>31/07/1997</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6349,7 +6349,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=121&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=10&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6364,43 +6364,91 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
+          <t>Proyecto Aroma Prospección Minera</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Decimoquinta</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Inversiones North (Chile) Ltda.</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>700</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>23/07/1997</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=121&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>Putre</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
           <t>Proyecto La Mancha Prospección Minera</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>Decimoquinta</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Decimoquinta</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
         <is>
           <t>RTZ Mining</t>
         </is>
       </c>
-      <c r="F126" t="n">
+      <c r="F127" t="n">
         <v>400</v>
       </c>
-      <c r="G126" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>09/07/1997</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
+      <c r="H127" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I126" t="inlineStr">
+      <c r="I127" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J126" t="inlineStr">
+      <c r="J127" t="inlineStr">
         <is>
           <t>Putre</t>
         </is>

--- a/data/Putre.xlsx
+++ b/data/Putre.xlsx
@@ -3872,7 +3872,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3887,11 +3887,11 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3900,12 +3900,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3920,7 +3920,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3935,11 +3935,11 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3948,12 +3948,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">

--- a/data/Putre.xlsx
+++ b/data/Putre.xlsx
@@ -3872,7 +3872,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3887,11 +3887,11 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3900,12 +3900,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3920,7 +3920,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3935,11 +3935,11 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3948,12 +3948,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">

--- a/data/Putre.xlsx
+++ b/data/Putre.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>04/03/2022</t>
+          <t>10/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3872,7 +3872,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3887,11 +3887,11 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3900,12 +3900,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3920,7 +3920,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3935,11 +3935,11 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3948,12 +3948,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">

--- a/data/Putre.xlsx
+++ b/data/Putre.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Putre.xlsx
+++ b/data/Putre.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J127"/>
+  <dimension ref="A1:J128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,12 +424,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Reposición Ruta 11-CH, Sector: Km. 147 Km. - 170, Comuna de Putre, Provincia de Parinacota, Región de Arica y Parinacota</t>
+          <t>Proyecto Sofía - Sondajes de Exploración</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Andex Minerals Chile SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>39775</v>
+        <v>10709</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10/03/2022</t>
+          <t>16/11/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155179204&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157655532&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,12 +472,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Proyecto Cerro Marquez</t>
+          <t>Reposición Ruta 11-CH, Sector: Km. 147 Km. - 170, Comuna de Putre, Provincia de Parinacota, Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MINERA PLATA CARINA SpA</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5000</v>
+        <v>39775</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>08/04/2021</t>
+          <t>10/03/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151344334&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155179204&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>Proyecto Cerro Marquez</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -530,20 +530,20 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>MINERA PLATA CARINA SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>23/12/2019</t>
+          <t>08/04/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151344334&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,40 +568,40 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mejoramiento Ruta Andina, Sector Límite Regional - Ruta 11 CH. Región de Arica y Parinacota</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>70695</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>29/10/2018</t>
+          <t>23/12/2019</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141432509&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,12 +616,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Proyecto Instalación Torre de Telecomunicaciones Sitio NEWPOLI341F1 - Ancuta</t>
+          <t>Mejoramiento Ruta Andina, Sector Límite Regional - Ruta 11 CH. Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Telefónica Móviles Chile S.A</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>150</v>
+        <v>70695</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>23/04/2018</t>
+          <t>29/10/2018</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138933410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141432509&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,12 +664,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mejoramiento Ruta Andina, Sector Límite Regional - Ruta 11-CH, Región de Arica y Parinacota</t>
+          <t>Proyecto Instalación Torre de Telecomunicaciones Sitio NEWPOLI341F1 - Ancuta</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Telefónica Móviles Chile S.A</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>62890</v>
+        <v>150</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>26/01/2017</t>
+          <t>23/04/2018</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132091895&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138933410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,12 +712,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Instalación Torre de Telecomunicaciones Sitio NEWPOLI272F1 Putre - Guallatire</t>
+          <t>Mejoramiento Ruta Andina, Sector Límite Regional - Ruta 11-CH, Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Telefónica Móviles Chile S.A</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>245</v>
+        <v>62890</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>09/11/2016</t>
+          <t>26/01/2017</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131910242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132091895&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Instalación Torre de Telecomunicaciones Sitio NEWPOLI282F1 - Av. Simón Bolívar R11 Putre 6</t>
+          <t>Instalación Torre de Telecomunicaciones Sitio NEWPOLI272F1 Putre - Guallatire</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -779,21 +779,21 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>303</v>
+        <v>245</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>14/09/2016</t>
+          <t>09/11/2016</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131771136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131910242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Instalación Torre de Telecomunicaciones Sitio NEWPOLI273F1 - Putre - Murmuntani</t>
+          <t>Instalación Torre de Telecomunicaciones Sitio NEWPOLI282F1 - Av. Simón Bolívar R11 Putre 6</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -827,21 +827,21 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>01/08/2016</t>
+          <t>14/09/2016</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131646554&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131771136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Instalación Torre de Telecomunicaciones Sitio NEWPOLI274F1 - Putre Paquisa</t>
+          <t>Instalación Torre de Telecomunicaciones Sitio NEWPOLI273F1 - Putre - Murmuntani</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -875,7 +875,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131641673&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131646554&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Instalación Torre de Telecomunicaciones Sitio NEWPOLI280F1 - Av. Simón Bolívar R11 - Putre 4</t>
+          <t>Instalación Torre de Telecomunicaciones Sitio NEWPOLI274F1 - Putre Paquisa</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -923,11 +923,11 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>27/07/2016</t>
+          <t>01/08/2016</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131627463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131641673&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Instalación Torre de Telecomunicaciones Sitio NEWPOLI281F1 - Av. Simón Bolívar R11 - Putre 5</t>
+          <t>Instalación Torre de Telecomunicaciones Sitio NEWPOLI280F1 - Av. Simón Bolívar R11 - Putre 4</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>208</v>
+        <v>268</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131627971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131627463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Instalación Torre de Telecomunicaciones Sitio NEWPOLI283F1 - Av. Simón Bolívar R11 - Putre 7</t>
+          <t>Instalación Torre de Telecomunicaciones Sitio NEWPOLI281F1 - Av. Simón Bolívar R11 - Putre 5</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1019,7 +1019,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131628307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131627971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Instalación Torre de Telecomunicaciones Sitio NEWPOLI280F1 Av. Simón Bolívar R11 Putre 4</t>
+          <t>Instalación Torre de Telecomunicaciones Sitio NEWPOLI283F1 - Av. Simón Bolívar R11 - Putre 7</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Maria Olga Contreras Cifras</t>
+          <t>Telefónica Móviles Chile S.A</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>269</v>
+        <v>194</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>25/07/2016</t>
+          <t>27/07/2016</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131613876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131628307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>"Instalación Torre de Telecomunicaciones Sitio NEWPOLI281F1 - Av. Simón Bolívar R11 - Putre 5"</t>
+          <t>Instalación Torre de Telecomunicaciones Sitio NEWPOLI280F1 Av. Simón Bolívar R11 Putre 4</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131616275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131613876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Instalación Torre de Telecomunicaciones Sitio NEWPOLI283F1 - Av. Simón Bolívar R11 - Putre 7</t>
+          <t>"Instalación Torre de Telecomunicaciones Sitio NEWPOLI281F1 - Av. Simón Bolívar R11 - Putre 5"</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1163,7 +1163,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>194</v>
+        <v>269</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131617666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131616275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Instalación de Torre para Telecomunicaciones Sitio ZT072 - Chapiquiña</t>
+          <t>Instalación Torre de Telecomunicaciones Sitio NEWPOLI283F1 - Av. Simón Bolívar R11 - Putre 7</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>WILL S.A</t>
+          <t>Maria Olga Contreras Cifras</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>45</v>
+        <v>194</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>22/07/2015</t>
+          <t>25/07/2016</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130634576&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131617666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Instalación de Torre para Telecomunicaciones Sitio ZT072 - Chapiquiña</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,30 +1250,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>WILL S.A</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>5000</v>
+        <v>45</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>22/07/2015</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130634576&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico entre la XV, I, II y III Regiones de Chile</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Transportes DE&amp;FE SpA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>13/01/2015</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130119810&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ampliación de Rutas de Transporte de Ácido Sulfúrico entre la I, II y III Regiones</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico entre la XV, I, II y III Regiones de Chile</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Lincoyán Gregorio Bautista Cárdenas</t>
+          <t>Transportes DE&amp;FE SpA</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>09/01/2015</t>
+          <t>13/01/2015</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130119630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130119810&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico entre la XV, I, II y III Regiones de Chile</t>
+          <t>Ampliación de Rutas de Transporte de Ácido Sulfúrico entre la I, II y III Regiones</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Transportes DE&amp;FE SpA</t>
+          <t>Lincoyán Gregorio Bautista Cárdenas</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1407,17 +1407,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>30/12/2014</t>
+          <t>09/01/2015</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130090735&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130119630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ampliación de Rutas de Transporte de Ácido Sulfúrico entre la I, II y III Regiones</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico entre la XV, I, II y III Regiones de Chile</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Lincoyán Gregorio Bautista Cárdenas</t>
+          <t>Transportes DE&amp;FE SpA</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>29/12/2014</t>
+          <t>30/12/2014</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130090791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130090735&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación de Rutas de Transporte de Ácido Sulfúrico entre la I, II y III Regiones</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Lincoyán Gregorio Bautista Cárdenas</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>29/12/2014</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130090791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,15 +1687,15 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>20/11/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128831391&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,15 +1783,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>20/11/2013</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128831391&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Construcción de Alcantarillado, Casetas Sanitarias y Disposición de Aguas Servidas en Chucuyo, Parque Nacional Lauca, Comuna de Putre</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,30 +1874,30 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Municipalidad de Putre</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>385</v>
+        <v>5000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>03/05/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6868604&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Construcción de Casetas Sanitarias y Disposición de Aguas Servidas en Estancias de Guallatire, Reserva Nacional Las Vicuñas, Comuna de Putre</t>
+          <t>Construcción de Alcantarillado, Casetas Sanitarias y Disposición de Aguas Servidas en Chucuyo, Parque Nacional Lauca, Comuna de Putre</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1931,7 +1931,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6869361&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6868604&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Construcción de Alcantarillado, Casetas Sanitarias y disposición de Aguas Servidas en Chucuyo, Parque Nacional Lauca, Comuna de Putre</t>
+          <t>Construcción de Casetas Sanitarias y Disposición de Aguas Servidas en Estancias de Guallatire, Reserva Nacional Las Vicuñas, Comuna de Putre</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1979,21 +1979,21 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>28/03/2012</t>
+          <t>03/05/2012</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6741066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6869361&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Construcción de Casetas Sanitarias y Disposición de Aguas Servidas en Estancias de Guallatire, Reserva Nacional Las Vicuñas, Comuna de Putre</t>
+          <t>Construcción de Alcantarillado, Casetas Sanitarias y disposición de Aguas Servidas en Chucuyo, Parque Nacional Lauca, Comuna de Putre</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2027,7 +2027,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6742841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6741066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Construcción de Casetas Sanitarias y Disposición de Aguas Servidas en Estancias de Guallatire, Reserva Nacional Las Vicuñas, Comuna de Putre</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,20 +2066,20 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Municipalidad de Putre</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>100</v>
+        <v>370</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>28/03/2012</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6742841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,40 +2152,40 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Reposición Ruta Andina A -93, Parinacota - Visviri, Tramo al interior del Parque Nacional Lauca" Comuna de Putre, Provincia de Parinacota, Región de Arica y Parinacota</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>6424</v>
+        <v>100</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>24/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6271788&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>PROYECTO "MANGANESO LOS PUMAS"</t>
+          <t>Reposición Ruta Andina A -93, Parinacota - Visviri, Tramo al interior del Parque Nacional Lauca" Comuna de Putre, Provincia de Parinacota, Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>MINERA HEMISFERIO SUR S.C.M.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>100000</v>
+        <v>6424</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>26/08/2011</t>
+          <t>24/11/2011</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5964455&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6271788&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Proyecto Manganeso Los Pumas</t>
+          <t>PROYECTO "MANGANESO LOS PUMAS"</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2271,17 +2271,17 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>08/06/2011</t>
+          <t>26/08/2011</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5685773&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5964455&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Manganeso Los Pumas Manganeso Los Pumas</t>
+          <t>Proyecto Manganeso Los Pumas</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2319,7 +2319,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>27/05/2011</t>
+          <t>08/06/2011</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5661945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5685773&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Reposición Ruta 11-CH, Sector Arica - Tambo Quemado, Tramo km. 170,0 al km. 192,0 , Región de Arica Parinacota</t>
+          <t>Manganeso Los Pumas Manganeso Los Pumas</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>MINERA HEMISFERIO SUR S.C.M.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>44992</v>
+        <v>100000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>14/04/2011</t>
+          <t>27/05/2011</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5507585&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5661945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,12 +2392,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Instalación de Infraestructura Digital para la Conectividad en Parinacota</t>
+          <t>Reposición Ruta 11-CH, Sector Arica - Tambo Quemado, Tramo km. 170,0 al km. 192,0 , Región de Arica Parinacota</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ENTEL PCS Telecomunicaciones S.A.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>45</v>
+        <v>44992</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>06/04/2011</t>
+          <t>14/04/2011</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5497384&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5507585&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Instalación de Infraestructura Digital para la Conectividad en Parinacota</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,20 +2450,20 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>ENTEL PCS Telecomunicaciones S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>250</v>
+        <v>45</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>16/02/2011</t>
+          <t>06/04/2011</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5497384&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2511,17 +2511,17 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>31/01/2011</t>
+          <t>16/02/2011</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Región de Arica y Parinacota</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,30 +2546,30 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo SEREMI de Vivienda y Urbanismo, Región XV</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>23/11/2010</t>
+          <t>31/01/2011</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5084670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Plan Regional de Desarrollo Urbano Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,30 +2594,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>SEREMI de Vivienda y Urbanismo SEREMI de Vivienda y Urbanismo, Región XV</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>23/11/2010</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5084670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Los Pumas Los Pumas</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,30 +2642,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>MINERA HEMISFERIO SUR S.C.M.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>50000</v>
+        <v>1750</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>03/08/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4794566&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos M&amp;M Ltda</t>
+          <t>Los Pumas Los Pumas</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,30 +2690,30 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>MINERA HEMISFERIO SUR S.C.M.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>78</v>
+        <v>50000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>28/07/2010</t>
+          <t>03/08/2010</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4790984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4794566&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Construcción y Operación de un Observatorio Astronómico para Fines Educativos y Turísticos de la Universidad de Tarapacá, en Copaquilla, Provincia de Parinacota UTA</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos M&amp;M Ltda</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,20 +2738,20 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>UNIVERSIDAD DE TARAPACÁ</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1100</v>
+        <v>78</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>14/07/2010</t>
+          <t>28/07/2010</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4755353&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4790984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
+          <t>Construcción y Operación de un Observatorio Astronómico para Fines Educativos y Turísticos de la Universidad de Tarapacá, en Copaquilla, Provincia de Parinacota UTA</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,20 +2786,20 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
+          <t>UNIVERSIDAD DE TARAPACÁ</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>06/07/2010</t>
+          <t>14/07/2010</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4755353&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1750</v>
+        <v>900</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>06/07/2010</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>41075</v>
+        <v>250</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>15/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>250</v>
+        <v>41075</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>15/03/2010</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MANTENCION DE RUTA 11 CH. ARICA TAMBO QUEMADO (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,30 +3026,30 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ricardo zarate jaime</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>21/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4360320&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>MANTENCION DE RUTA 11 CH. ARICA TAMBO QUEMADO (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,30 +3074,30 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>ricardo zarate jaime</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>350</v>
+        <v>20</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>21/01/2010</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4360320&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,36 +3160,40 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Exploración Minera Proyecto Catanave Exploración Minera Proyecto Catanave</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Southern Copper Corporation ¿ Agencia en Chile</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>950</v>
+        <v>0</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>12/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4180147&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3204,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Exploración Minera Proyecto Catanave</t>
+          <t>Exploración Minera Proyecto Catanave Exploración Minera Proyecto Catanave</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -3223,17 +3227,17 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>02/11/2009</t>
+          <t>12/11/2009</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4180147&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3248,40 +3252,36 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Exploración Minera Proyecto Catanave</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Southern Copper Corporation ¿ Agencia en Chile</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>250</v>
+        <v>950</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>02/11/2009</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3319,7 +3319,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>23/09/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3329,7 +3329,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3344,7 +3344,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Fibra óptica Arica - Tambo Quemado (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3354,30 +3354,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Telefónica International Wholesale Services Chile S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1681</v>
+        <v>250</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>24/08/2009</t>
+          <t>23/09/2009</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3950834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3392,7 +3392,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Mantención de Ruta 11 Ch. Arica - Tambo Quemado. (e-seia)</t>
+          <t>Fibra óptica Arica - Tambo Quemado (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3407,25 +3407,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>ricardo zarate jaime</t>
+          <t>Telefónica International Wholesale Services Chile S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>20</v>
+        <v>1681</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>31/07/2009</t>
+          <t>24/08/2009</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3949320&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3950834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3440,7 +3440,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Fibra Óptica Arica - Tambo Quemado (e-seia)</t>
+          <t>Mantención de Ruta 11 Ch. Arica - Tambo Quemado. (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3455,15 +3455,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Telefónica International Wholesale Services Chile S.A.</t>
+          <t>ricardo zarate jaime</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1681</v>
+        <v>20</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>14/07/2009</t>
+          <t>31/07/2009</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3473,7 +3473,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3823569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3949320&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3488,7 +3488,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
+          <t>Fibra Óptica Arica - Tambo Quemado (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3498,30 +3498,30 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Telefónica International Wholesale Services Chile S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>800</v>
+        <v>1681</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>10/07/2009</t>
+          <t>14/07/2009</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3823569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3536,7 +3536,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Mantancion de Ruta 11 CH. Arica-Tambo Quemado (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3546,30 +3546,30 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>ricardo zarate jaime</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>30/06/2009</t>
+          <t>10/07/2009</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3888754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3584,7 +3584,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
+          <t>Mantancion de Ruta 11 CH. Arica-Tambo Quemado (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3594,20 +3594,20 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>ricardo zarate jaime</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>16/06/2009</t>
+          <t>30/06/2009</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3888754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3632,7 +3632,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>CONSTRUCCION ELECTRIFICACION SING COMUNA DE GENERAL LAGOS (e-seia)</t>
+          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3642,30 +3642,30 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>13/02/2009</t>
+          <t>16/06/2009</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3557500&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3680,7 +3680,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Mantencion y Limpieza Ruta 11-Ch (e-seia)</t>
+          <t>CONSTRUCCION ELECTRIFICACION SING COMUNA DE GENERAL LAGOS (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3695,25 +3695,25 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>ricardo zarate jaime</t>
+          <t>Compañía General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>20</v>
+        <v>1500</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>16/12/2008</t>
+          <t>13/02/2009</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3449356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3557500&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3728,7 +3728,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Mantencion y Limpieza Ruta 11-Ch (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3738,30 +3738,30 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>ricardo zarate jaime</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>16/12/2008</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3449356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3776,7 +3776,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>REPOSICIÓN RUTA 11 -CH, SECTOR CHUCUYO, (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3786,20 +3786,20 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>17111</v>
+        <v>300</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>23/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3824,7 +3824,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>REPOSICIÓN RUTA A-235, SECTOR: PUENTE LAUCA-GUALLATIRE-CHILCAYA REPOSICIÓN RUTA A-235 (e-seia)</t>
+          <t>REPOSICIÓN RUTA 11 -CH, SECTOR CHUCUYO, (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3843,11 +3843,11 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1934</v>
+        <v>17111</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>22/10/2008</t>
+          <t>23/10/2008</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3857,7 +3857,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266716&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3872,7 +3872,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>REPOSICIÓN RUTA A-235, SECTOR: PUENTE LAUCA-GUALLATIRE-CHILCAYA REPOSICIÓN RUTA A-235 (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3882,30 +3882,30 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>250</v>
+        <v>1934</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>22/10/2008</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266716&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3920,7 +3920,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3935,11 +3935,11 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3948,12 +3948,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3968,7 +3968,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3983,25 +3983,25 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4016,7 +4016,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4031,15 +4031,15 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4049,7 +4049,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4064,7 +4064,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>REPOSICIÓN RUTA 11 - CH, SECTOR CHUCUYO (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4074,30 +4074,30 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>17111</v>
+        <v>20</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>10/09/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3153000&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4112,7 +4112,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>REPOSICIÓN RUTA 11 - CH, SECTOR CHUCUYO (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4122,20 +4122,20 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>250</v>
+        <v>17111</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>10/09/2008</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4145,7 +4145,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3153000&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4160,7 +4160,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4175,25 +4175,25 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4208,7 +4208,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Reposición Ruta A-235, Sector Puente Lauca - Guallatire - Chilcaya, Prov. de Parinacota, Región de Arica y Parinacota (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4218,30 +4218,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3037648&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4256,7 +4256,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>LEVANTAMIENTO PLAN SECCIONAL DE PUTRE Y OTRAS LOCALIDADES, PUTRE (e-seia)</t>
+          <t>Reposición Ruta A-235, Sector Puente Lauca - Guallatire - Chilcaya, Prov. de Parinacota, Región de Arica y Parinacota (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4271,15 +4271,15 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Francisco Humire Alejandro</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>10/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4289,7 +4289,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3009489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3037648&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>LEVANTAMIENTO PLAN SECCIONAL DE PUTRE Y OTRAS LOCALIDADES, PUTRE (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4314,20 +4314,20 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Francisco Humire Alejandro</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>10/07/2008</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4337,7 +4337,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3009489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4352,7 +4352,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4367,25 +4367,25 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4400,7 +4400,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Planta Tratamiento Aguas Servidas Complejo Fronterizo Chungará (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4410,20 +4410,20 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Gobernación Provincial de Parinacota</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>128</v>
+        <v>500</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>05/06/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4433,7 +4433,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2961225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4448,7 +4448,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Planta Tratamiento Aguas Servidas Complejo Fronterizo Chungará (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4458,30 +4458,30 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Gobernación Provincial de Parinacota</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>05/06/2008</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2961225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4496,7 +4496,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Plan Regulador de la Comuna de Putre y otras Localidades (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4506,20 +4506,20 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Francisco Humire Alejandro</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>20/05/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4529,7 +4529,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910616&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4544,7 +4544,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Planta Tratamiento Aguas Servidas planta trat ag serv chungara (e-seia)</t>
+          <t>Plan Regulador de la Comuna de Putre y otras Localidades (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4559,15 +4559,15 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Gobernación Provincial de Parinacota</t>
+          <t>Francisco Humire Alejandro</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>18/04/2008</t>
+          <t>20/05/2008</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4577,7 +4577,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2822466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910616&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4592,7 +4592,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Planta Tratamiento Aguas Servidas planta trat ag serv chungara (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4602,30 +4602,30 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Gobernación Provincial de Parinacota</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>18/04/2008</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2822466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4640,7 +4640,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4655,15 +4655,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>429</v>
+        <v>0</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4673,7 +4673,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4688,7 +4688,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Remediación de Suelos para la Reparación y Rehabilitación de la Vía Férrea Arica Visviri (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4698,20 +4698,20 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Empresa De Los Ferrocarriles del Estado</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>4800</v>
+        <v>429</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>24/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2457856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4759,17 +4759,17 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>17/10/2007</t>
+          <t>24/10/2007</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2433171&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2457856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4784,7 +4784,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Remediación de Suelos para la Reparación y Rehabilitación de la Vía Férrea Arica Visviri (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4794,30 +4794,30 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Empresa De Los Ferrocarriles del Estado</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>234</v>
+        <v>4800</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>17/10/2007</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2433171&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4832,7 +4832,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4847,15 +4847,15 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4865,7 +4865,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4880,36 +4880,40 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Construcción Complejo fronterizo Chungará</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr"/>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Gobernación Provincial de Parinacota</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>11655</v>
+        <v>10</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>18/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2308737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4924,40 +4928,36 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Construcción Complejo fronterizo Chungará</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Gobernación Provincial de Parinacota</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>300</v>
+        <v>11655</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>18/07/2007</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2308737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4972,7 +4972,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Exploracion Minera Choquelimpie (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4982,30 +4982,30 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Vilacollo SA</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>27/04/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5020,7 +5020,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Proyecto de Exploración Minera Catanave (e-seia)</t>
+          <t>Exploracion Minera Choquelimpie (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5035,25 +5035,25 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Southern Copper Corporation ¿ Agencia en Chile</t>
+          <t>Sociedad Contractual Minera Vilacollo SA</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>305</v>
+        <v>500</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>18/04/2007</t>
+          <t>27/04/2007</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2105464&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5068,7 +5068,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Actualización Gestión de Ácido Sulfúrico, Codelco Norte (e-seia)</t>
+          <t>Proyecto de Exploración Minera Catanave (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5078,30 +5078,30 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Southern Copper Corporation ¿ Agencia en Chile</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>305</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>15/01/2007</t>
+          <t>18/04/2007</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922065&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2105464&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5116,7 +5116,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Actualización Gestión de Ácido Sulfúrico, Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5131,25 +5131,25 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>15/01/2007</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922065&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5187,17 +5187,17 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5212,7 +5212,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>REPOSICION RUTA 11-CH, ARICA - TAMBO QUEMADO SECTORES: ACCESO CHOQUELIMPIE - CHUCUYO Arica - Tambo Quemado (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5222,30 +5222,30 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1233</v>
+        <v>200</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>10/02/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1273425&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5260,7 +5260,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>REPOSICION RUTA 11-CH, ARICA - TAMBO QUEMADO SECTORES: ACCESO CHOQUELIMPIE - CHUCUYO Arica - Tambo Quemado (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5270,30 +5270,30 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>160</v>
+        <v>1233</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>10/02/2006</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1273425&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5308,40 +5308,40 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Exploraciones Chantacollo</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Maria Eugenia Velasquez .</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>13/09/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1039024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5356,12 +5356,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Reposición Servicios Higienicos Control Fronterizo Chungara (e-seia)</t>
+          <t>Exploraciones Chantacollo</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -5371,25 +5371,25 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Gobernación Provincial de Parinacota</t>
+          <t>Maria Eugenia Velasquez .</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>82</v>
+        <v>200</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>09/08/2005</t>
+          <t>13/09/2005</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=964173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1039024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5404,7 +5404,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN AGUA POTABLE RURAL (APR) LOCALIDAD DE GUALLATIRE (e-seia)</t>
+          <t>Reposición Servicios Higienicos Control Fronterizo Chungara (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5419,25 +5419,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Gobernación Provincial de Parinacota</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>04/11/2004</t>
+          <t>09/08/2005</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=481507&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=964173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5452,7 +5452,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN SISTEMA DE AGUA POTABLE RURAL (APR) LOCALIDAD DE PARINACOTA (e-seia)</t>
+          <t>CONSTRUCCIÓN AGUA POTABLE RURAL (APR) LOCALIDAD DE GUALLATIRE (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=481628&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=481507&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5500,7 +5500,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Actualizacion Plan Regional de Desarrollo Urbano (e-seia)</t>
+          <t>CONSTRUCCIÓN SISTEMA DE AGUA POTABLE RURAL (APR) LOCALIDAD DE PARINACOTA (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5510,20 +5510,20 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Secretaria Regional Ministerial de Vivienda y Urbanismo</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>223</v>
+        <v>74</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>01/09/2004</t>
+          <t>04/11/2004</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5533,7 +5533,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=438513&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=481628&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5548,7 +5548,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>REPOSICIÓN RUTA 11-CH, ARICA TAMBO QUEMADO, SECTOR BIF. PUTRE BIF. CHOQUELIMPIE, I REGIÓN (e-seia)</t>
+          <t>Actualizacion Plan Regional de Desarrollo Urbano (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5558,30 +5558,30 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Secretaria Regional Ministerial de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>4240</v>
+        <v>223</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>28/07/2004</t>
+          <t>01/09/2004</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=390262&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=438513&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5596,7 +5596,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Domésticas Poblado de Parinacota</t>
+          <t>REPOSICIÓN RUTA 11-CH, ARICA TAMBO QUEMADO, SECTOR BIF. PUTRE BIF. CHOQUELIMPIE, I REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5611,25 +5611,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Putre</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>16</v>
+        <v>4240</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>28/11/2002</t>
+          <t>28/07/2004</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6070&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=390262&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5644,7 +5644,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>V Festival de la Voz Andina de la Comuna de Putre</t>
+          <t>Planta de Tratamiento de Aguas Servidas Domésticas Poblado de Parinacota</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5663,11 +5663,11 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>07/11/2002</t>
+          <t>28/11/2002</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5677,7 +5677,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6000&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6070&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5692,7 +5692,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Proyecto de Pavimentación Participativa Localidad de Parinacota</t>
+          <t>V Festival de la Voz Andina de la Comuna de Putre</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5715,7 +5715,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>11/10/2002</t>
+          <t>07/11/2002</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5725,7 +5725,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6000&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5740,7 +5740,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Optimización del Proyecto Minero Choquelimpie</t>
+          <t>Proyecto de Pavimentación Participativa Localidad de Parinacota</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5755,7 +5755,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Vilacollo</t>
+          <t>Ilustre Municipalidad de Putre</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -5763,17 +5763,17 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>07/02/2002</t>
+          <t>11/10/2002</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5788,7 +5788,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Optimización del Proyecto Minero Choquelimpie</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5798,30 +5798,30 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Sociedad Contractual Minera Vilacollo</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>07/02/2002</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5836,7 +5836,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y II</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5851,25 +5851,25 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Transportes Molina Limitada</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>06/08/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4265&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5884,7 +5884,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Instalación del Sistema de Agua Potable Rural de Chapiquiña</t>
+          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y II</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5894,20 +5894,20 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Transportes Molina Limitada</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>23/03/2000</t>
+          <t>06/08/2001</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5917,7 +5917,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4265&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5932,7 +5932,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Instalación del Sistema de Agua Potable Rural de Chapiquiña</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5942,12 +5942,12 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimoquinta</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F117" t="n">
@@ -5955,7 +5955,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>23/03/2000</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5965,7 +5965,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5980,30 +5980,30 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Electrificación Poblado de Parinacota</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Decimoquinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Putre</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>03/12/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6013,7 +6013,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6028,7 +6028,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Planta de Lavado de Ulexita en el Salar de Surire I Región</t>
+          <t>Electrificación Poblado de Parinacota</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6043,25 +6043,25 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>QUIBORAX S.A.</t>
+          <t>I. Municipalidad de Putre</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>3400</v>
+        <v>80</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>24/09/1999</t>
+          <t>03/12/1999</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6076,12 +6076,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Límite Urbano Ciudad de Servicios Posadas de Zapahuira</t>
+          <t>Planta de Lavado de Ulexita en el Salar de Surire I Región</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -6091,25 +6091,25 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Putre</t>
+          <t>QUIBORAX S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>600</v>
+        <v>3400</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>05/07/1999</t>
+          <t>24/09/1999</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2112&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6124,7 +6124,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Habilitación Albergue Turístico Localidad de Guallatire</t>
+          <t>Límite Urbano Ciudad de Servicios Posadas de Zapahuira</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6143,21 +6143,21 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>50</v>
+        <v>600</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>22/01/1999</t>
+          <t>05/07/1999</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1772&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2112&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6172,7 +6172,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Primer Raid Altiplánico 1998</t>
+          <t>Habilitación Albergue Turístico Localidad de Guallatire</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6187,15 +6187,15 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Ejército de Chile R.C. BL. Nº1</t>
+          <t>I. Municipalidad de Putre</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>14/08/1998</t>
+          <t>22/01/1999</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6205,7 +6205,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1278&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1772&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6220,12 +6220,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Consultoría Análisis Ambiental del Proyecto de Explotación de Pozos en Parque Nacional Lauca</t>
+          <t>Primer Raid Altiplánico 1998</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -6235,25 +6235,25 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Ejército de Chile R.C. BL. Nº1</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>4280</v>
+        <v>0</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>21/07/1998</t>
+          <t>14/08/1998</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=940285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1278&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6268,12 +6268,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Exploraciones Anocarire</t>
+          <t>Consultoría Análisis Ambiental del Proyecto de Explotación de Pozos en Parque Nacional Lauca</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -6283,25 +6283,25 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Minera Homestake Chile S.A.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>100</v>
+        <v>4280</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>13/12/1997</t>
+          <t>21/07/1998</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=171&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=940285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6316,7 +6316,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Instalación Fibra Optica (desde Cerro Chapiquiña a Bolivia)</t>
+          <t>Exploraciones Anocarire</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6331,15 +6331,15 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Entel Chile S.A.</t>
+          <t>Minera Homestake Chile S.A.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>3000</v>
+        <v>100</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>31/07/1997</t>
+          <t>13/12/1997</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6349,7 +6349,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=10&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=171&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6364,7 +6364,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Proyecto Aroma Prospección Minera</t>
+          <t>Instalación Fibra Optica (desde Cerro Chapiquiña a Bolivia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6379,15 +6379,15 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Inversiones North (Chile) Ltda.</t>
+          <t>Entel Chile S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>700</v>
+        <v>3000</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>23/07/1997</t>
+          <t>31/07/1997</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6397,7 +6397,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=121&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=10&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6412,43 +6412,91 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
+          <t>Proyecto Aroma Prospección Minera</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Decimoquinta</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Inversiones North (Chile) Ltda.</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>700</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>23/07/1997</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=121&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>Putre</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
           <t>Proyecto La Mancha Prospección Minera</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>Decimoquinta</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Decimoquinta</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
         <is>
           <t>RTZ Mining</t>
         </is>
       </c>
-      <c r="F127" t="n">
+      <c r="F128" t="n">
         <v>400</v>
       </c>
-      <c r="G127" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>09/07/1997</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
+      <c r="H128" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I127" t="inlineStr">
+      <c r="I128" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J127" t="inlineStr">
+      <c r="J128" t="inlineStr">
         <is>
           <t>Putre</t>
         </is>

--- a/data/Putre.xlsx
+++ b/data/Putre.xlsx
@@ -3920,7 +3920,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3935,11 +3935,11 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3948,12 +3948,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3968,7 +3968,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3983,11 +3983,11 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -3996,12 +3996,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">

--- a/data/Putre.xlsx
+++ b/data/Putre.xlsx
@@ -3920,7 +3920,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3935,11 +3935,11 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3948,12 +3948,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3968,7 +3968,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3983,11 +3983,11 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -3996,12 +3996,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">

--- a/data/Putre.xlsx
+++ b/data/Putre.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16/11/2022</t>
+          <t>23/11/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3920,7 +3920,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3935,11 +3935,11 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3948,12 +3948,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3968,7 +3968,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3983,11 +3983,11 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -3996,12 +3996,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">

--- a/data/Putre.xlsx
+++ b/data/Putre.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
